--- a/evaluation/30gb_tc_experiment_ana_executions_and_uptime_difference.xlsx
+++ b/evaluation/30gb_tc_experiment_ana_executions_and_uptime_difference.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fschnei4/TUB_Master_ISM/SoSe21/MA/msc-thesis-saft-experiments/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB27C8F2-2673-8448-8F5E-7F374B509A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25019C9-5B73-AE4C-B5AB-323C6FF7DF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="29260" windowWidth="35840" windowHeight="20940" xr2:uid="{6E3BB99E-08A2-F943-AD06-C2CEE3AB35A4}"/>
+    <workbookView xWindow="24480" yWindow="29260" windowWidth="17920" windowHeight="20940" xr2:uid="{6E3BB99E-08A2-F943-AD06-C2CEE3AB35A4}"/>
   </bookViews>
   <sheets>
     <sheet name="App level" sheetId="1" r:id="rId1"/>
     <sheet name="Job level" sheetId="2" r:id="rId2"/>
     <sheet name="Stage level" sheetId="3" r:id="rId3"/>
-    <sheet name="Task level" sheetId="4" r:id="rId4"/>
+    <sheet name="Task level (too detailed)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/evaluation/30gb_tc_experiment_ana_executions_and_uptime_difference.xlsx
+++ b/evaluation/30gb_tc_experiment_ana_executions_and_uptime_difference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fschnei4/TUB_Master_ISM/SoSe21/MA/msc-thesis-saft-experiments/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25019C9-5B73-AE4C-B5AB-323C6FF7DF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F31F23-CB50-2E4B-BB0B-4E324027BE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24480" yWindow="29260" windowWidth="17920" windowHeight="20940" xr2:uid="{6E3BB99E-08A2-F943-AD06-C2CEE3AB35A4}"/>
+    <workbookView xWindow="24480" yWindow="29260" windowWidth="17920" windowHeight="6980" xr2:uid="{6E3BB99E-08A2-F943-AD06-C2CEE3AB35A4}"/>
   </bookViews>
   <sheets>
     <sheet name="App level" sheetId="1" r:id="rId1"/>
@@ -665,7 +665,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -982,6 +982,7 @@
     <hyperlink ref="C16" r:id="rId10" display="http://localhost:18081/history/spark-4c736126ec9a4b72a96a76c1155cd03e/jobs/" xr:uid="{3900BAEE-B4BF-0D47-BD4A-EF719E96B40D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
